--- a/biology/Botanique/Erodium_daucoides/Erodium_daucoides.xlsx
+++ b/biology/Botanique/Erodium_daucoides/Erodium_daucoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erodium daucoides, communément appelée Bec-de-grue, est une plante herbacée annuelle ou bisannuelle de la famille des Géraniacées. Elle est décrite par Pierre-Edmond Boissier.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom scientifique d’Erodium vient du grec erôdios, « héron », allusion à son fruit en forme de bec ressemblant à celui de cet échassier.
 </t>
@@ -544,13 +558,16 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Morphologie générale
-Erodium daucoides est une plante de la famille des Geraniaceae soit des géraniums et qui appartient au genre Erodium.
+          <t>Morphologie générale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erodium daucoides est une plante de la famille des Geraniaceae soit des géraniums et qui appartient au genre Erodium.
 C’est une plante endémique d’Espagne et qui fleurit de juin à aout. Sa fleur est de couleur rose/violette. 
 Carl von Linné regroupait dans cette famille les trois genres très ressemblants les uns des autres que sont les genres Erodium, Geranium et Pelargonium. Les trois possèdent la même caractéristique au niveau de leurs fruits. Ces derniers sont comparables à de longs becs d’oiseau.
 Les plantes de ce genre ont la particularité d’avoir des feuilles pennées et à la maturité, cinq carpelles. Ces derniers se détachent et se roulent en tire-bouchon.
-Appareil reproducteur
-Elle possède un mode de dissémination par autochorie, elle disperse elle-même ses graines.
 </t>
         </is>
       </c>
@@ -576,10 +593,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle possède un mode de dissémination par autochorie, elle disperse elle-même ses graines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Erodium_daucoides</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erodium_daucoides</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette fleur est endémique a l'Espagne, on la retrouve donc exclusivement en péninsule Ibérique.
 Erodium daucoides est une plante à fleurs poussant en altitude sur des substrats de type calcaire ou dolomitiques ainsi que dans des régions rocheuses et gravillonnées.
